--- a/supplies-frontend/static/batchUser.xlsx
+++ b/supplies-frontend/static/batchUser.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A_Users\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\supplies\supplies-frontend\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E908A635-0D1E-4B29-80EB-FFD9AE58E54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,16 +53,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,12 +84,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -356,20 +385,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
